--- a/scripts/local/result.xlsx
+++ b/scripts/local/result.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,392 +356,285 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>0.2_0.4</t>
+          <t>0.0_1.0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ap</t>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.6675999164581299</t>
+          <t>0.9716981053352356</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.6210790276527405</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.6910167932510376</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.6649746298789978</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.6592007875442505</t>
+          <t>0.9693396091461182</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.6035131812095642</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.6910167932510376</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.6619289517402649</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.682361900806427</t>
+          <t>0.9410377144813538</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.6035131812095642</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.7038499712944031</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.6304568648338318</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.3_0.1</t>
+          <t>0.3_0.2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ap</t>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.6927971243858337</t>
+          <t>0.8113207817077637</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.5545796751976013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.6465942859649658</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.6335025429725647</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.6368032693862915</t>
+          <t>0.8655660152435303</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.6173149347305298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.6406712532043457</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.6497461795806885</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.6281496286392212</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>0.6569101810455322</t>
+          <t>0.8514150977134705</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.5934755206108093</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.6159921288490295</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.6121827363967896</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.5_0.4</t>
         </is>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.3_0.3</t>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ap</t>
+          <t>0.8962264060974121</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.6311166882514954</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.6584402918815613</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.6192893385887146</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.6772715449333191</t>
+          <t>0.9386792182922363</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.5884566903114319</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.6781836152076721</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.6304568648338318</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.6452023386955261</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>0.6719266772270203</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.3_0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ap</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>0.6882158517837524</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>0.6912700533866882</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>0.6663272976875305</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0.3_0.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ap</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>0.6777806282043457</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>0.6240773797035217</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>0.6953423023223877</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>0.3_0.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ap</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>0.6731992959976196</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>0.6877067685127258</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>0.6803258061408997</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>0.4_0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>ap</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>0.6739628314971924</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>0.6759989857673645</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>0.616187334060669</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>0.6_0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>ap</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>0.6380758285522461</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>0.6474930047988892</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>0.6910155415534973</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>0.7_0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>ap</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>0.6765080094337463</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>0.6467294692993164</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>0.6352761387825012</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>0.8_0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>ap</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>0.7001781463623047</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>0.6808348298072815</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>0.6879613399505615</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>0.9_0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ap</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>0.7001781463623047</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>0.6541104316711426</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>0.6579282283782959</t>
+          <t>0.9551886916160583</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.6072772741317749</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.6643632650375366</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.5593908429145813</t>
         </is>
       </c>
     </row>
